--- a/Kode/Server2/Logs/lora_node2/2020-06-09.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-06-09.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F746"/>
+  <dimension ref="A1:F1051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15286,6 +15286,6106 @@
         <v>423.77982</v>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>179</v>
+      </c>
+      <c r="B747" s="1" t="n">
+        <v>0.6944240827893519</v>
+      </c>
+      <c r="C747" t="n">
+        <v>97</v>
+      </c>
+      <c r="D747" t="n">
+        <v>2.308</v>
+      </c>
+      <c r="E747" t="n">
+        <v>180.405</v>
+      </c>
+      <c r="F747" t="n">
+        <v>416.37474</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>180</v>
+      </c>
+      <c r="B748" s="1" t="n">
+        <v>0.6951183283912037</v>
+      </c>
+      <c r="C748" t="n">
+        <v>97</v>
+      </c>
+      <c r="D748" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="E748" t="n">
+        <v>180.33</v>
+      </c>
+      <c r="F748" t="n">
+        <v>408.98844</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>181</v>
+      </c>
+      <c r="B749" s="1" t="n">
+        <v>0.6958129975231481</v>
+      </c>
+      <c r="C749" t="n">
+        <v>97</v>
+      </c>
+      <c r="D749" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="E749" t="n">
+        <v>176.145</v>
+      </c>
+      <c r="F749" t="n">
+        <v>399.49686</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>182</v>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>0.6965062967129629</v>
+      </c>
+      <c r="C750" t="n">
+        <v>97</v>
+      </c>
+      <c r="D750" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E750" t="n">
+        <v>178.725</v>
+      </c>
+      <c r="F750" t="n">
+        <v>406.7781000000001</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>184</v>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>0.6978952598148148</v>
+      </c>
+      <c r="C751" t="n">
+        <v>97</v>
+      </c>
+      <c r="D751" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E751" t="n">
+        <v>179.73</v>
+      </c>
+      <c r="F751" t="n">
+        <v>409.06548</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>185</v>
+      </c>
+      <c r="B752" s="1" t="n">
+        <v>0.6985895860648148</v>
+      </c>
+      <c r="C752" t="n">
+        <v>97</v>
+      </c>
+      <c r="D752" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="E752" t="n">
+        <v>182.835</v>
+      </c>
+      <c r="F752" t="n">
+        <v>414.66978</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>186</v>
+      </c>
+      <c r="B753" s="1" t="n">
+        <v>0.6992854230439814</v>
+      </c>
+      <c r="C753" t="n">
+        <v>97</v>
+      </c>
+      <c r="D753" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E753" t="n">
+        <v>184.785</v>
+      </c>
+      <c r="F753" t="n">
+        <v>420.57066</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>187</v>
+      </c>
+      <c r="B754" s="1" t="n">
+        <v>0.6999800925231481</v>
+      </c>
+      <c r="C754" t="n">
+        <v>97</v>
+      </c>
+      <c r="D754" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E754" t="n">
+        <v>185.625</v>
+      </c>
+      <c r="F754" t="n">
+        <v>422.4825000000001</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>188</v>
+      </c>
+      <c r="B755" s="1" t="n">
+        <v>0.7006718746296297</v>
+      </c>
+      <c r="C755" t="n">
+        <v>97</v>
+      </c>
+      <c r="D755" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="E755" t="n">
+        <v>186.93</v>
+      </c>
+      <c r="F755" t="n">
+        <v>425.45268</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>189</v>
+      </c>
+      <c r="B756" s="1" t="n">
+        <v>0.7013659644675926</v>
+      </c>
+      <c r="C756" t="n">
+        <v>97</v>
+      </c>
+      <c r="D756" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="E756" t="n">
+        <v>176.79</v>
+      </c>
+      <c r="F756" t="n">
+        <v>401.66688</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>190</v>
+      </c>
+      <c r="B757" s="1" t="n">
+        <v>0.7020602141435186</v>
+      </c>
+      <c r="C757" t="n">
+        <v>97</v>
+      </c>
+      <c r="D757" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E757" t="n">
+        <v>41.325</v>
+      </c>
+      <c r="F757" t="n">
+        <v>243.8175</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>191</v>
+      </c>
+      <c r="B758" s="1" t="n">
+        <v>0.7027535520833333</v>
+      </c>
+      <c r="C758" t="n">
+        <v>97</v>
+      </c>
+      <c r="D758" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="E758" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="F758" t="n">
+        <v>259.9812</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>192</v>
+      </c>
+      <c r="B759" s="1" t="n">
+        <v>0.7034478677777778</v>
+      </c>
+      <c r="C759" t="n">
+        <v>97</v>
+      </c>
+      <c r="D759" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E759" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="F759" t="n">
+        <v>263.19</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>193</v>
+      </c>
+      <c r="B760" s="1" t="n">
+        <v>0.7041423294097222</v>
+      </c>
+      <c r="C760" t="n">
+        <v>97</v>
+      </c>
+      <c r="D760" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E760" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F760" t="n">
+        <v>262.9899</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>194</v>
+      </c>
+      <c r="B761" s="1" t="n">
+        <v>0.7048359053587964</v>
+      </c>
+      <c r="C761" t="n">
+        <v>97</v>
+      </c>
+      <c r="D761" t="n">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="E761" t="n">
+        <v>42.61499999999999</v>
+      </c>
+      <c r="F761" t="n">
+        <v>261.6561</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>198</v>
+      </c>
+      <c r="B762" s="1" t="n">
+        <v>0.7076127822222222</v>
+      </c>
+      <c r="C762" t="n">
+        <v>97</v>
+      </c>
+      <c r="D762" t="n">
+        <v>6.136</v>
+      </c>
+      <c r="E762" t="n">
+        <v>42.675</v>
+      </c>
+      <c r="F762" t="n">
+        <v>261.8538</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>199</v>
+      </c>
+      <c r="B763" s="1" t="n">
+        <v>0.7083084086689815</v>
+      </c>
+      <c r="C763" t="n">
+        <v>97</v>
+      </c>
+      <c r="D763" t="n">
+        <v>6.072</v>
+      </c>
+      <c r="E763" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="F763" t="n">
+        <v>258.48504</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>200</v>
+      </c>
+      <c r="B764" s="1" t="n">
+        <v>0.7090011011226852</v>
+      </c>
+      <c r="C764" t="n">
+        <v>97</v>
+      </c>
+      <c r="D764" t="n">
+        <v>6.092000000000001</v>
+      </c>
+      <c r="E764" t="n">
+        <v>42.45</v>
+      </c>
+      <c r="F764" t="n">
+        <v>258.6054</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>201</v>
+      </c>
+      <c r="B765" s="1" t="n">
+        <v>0.7097274551157408</v>
+      </c>
+      <c r="C765" t="n">
+        <v>97</v>
+      </c>
+      <c r="D765" t="n">
+        <v>6.132000000000001</v>
+      </c>
+      <c r="E765" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F765" t="n">
+        <v>260.94726</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>202</v>
+      </c>
+      <c r="B766" s="1" t="n">
+        <v>0.7103884841666667</v>
+      </c>
+      <c r="C766" t="n">
+        <v>97</v>
+      </c>
+      <c r="D766" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="E766" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="F766" t="n">
+        <v>253.21344</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>203</v>
+      </c>
+      <c r="B767" s="1" t="n">
+        <v>0.7110835217013889</v>
+      </c>
+      <c r="C767" t="n">
+        <v>97</v>
+      </c>
+      <c r="D767" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E767" t="n">
+        <v>42.21</v>
+      </c>
+      <c r="F767" t="n">
+        <v>251.5716</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>204</v>
+      </c>
+      <c r="B768" s="1" t="n">
+        <v>0.711777432488426</v>
+      </c>
+      <c r="C768" t="n">
+        <v>97</v>
+      </c>
+      <c r="D768" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E768" t="n">
+        <v>42.195</v>
+      </c>
+      <c r="F768" t="n">
+        <v>264.1407</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>205</v>
+      </c>
+      <c r="B769" s="1" t="n">
+        <v>0.7124748101620371</v>
+      </c>
+      <c r="C769" t="n">
+        <v>97</v>
+      </c>
+      <c r="D769" t="n">
+        <v>6.116000000000001</v>
+      </c>
+      <c r="E769" t="n">
+        <v>41.835</v>
+      </c>
+      <c r="F769" t="n">
+        <v>255.86286</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>206</v>
+      </c>
+      <c r="B770" s="1" t="n">
+        <v>0.7131658368402778</v>
+      </c>
+      <c r="C770" t="n">
+        <v>97</v>
+      </c>
+      <c r="D770" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="E770" t="n">
+        <v>41.775</v>
+      </c>
+      <c r="F770" t="n">
+        <v>256.8327</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>208</v>
+      </c>
+      <c r="B771" s="1" t="n">
+        <v>0.7145544220023148</v>
+      </c>
+      <c r="C771" t="n">
+        <v>97</v>
+      </c>
+      <c r="D771" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="E771" t="n">
+        <v>41.955</v>
+      </c>
+      <c r="F771" t="n">
+        <v>264.81996</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>209</v>
+      </c>
+      <c r="B772" s="1" t="n">
+        <v>0.7152495632407407</v>
+      </c>
+      <c r="C772" t="n">
+        <v>97</v>
+      </c>
+      <c r="D772" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E772" t="n">
+        <v>41.895</v>
+      </c>
+      <c r="F772" t="n">
+        <v>263.9385</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>210</v>
+      </c>
+      <c r="B773" s="1" t="n">
+        <v>0.715942154375</v>
+      </c>
+      <c r="C773" t="n">
+        <v>97</v>
+      </c>
+      <c r="D773" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E773" t="n">
+        <v>41.865</v>
+      </c>
+      <c r="F773" t="n">
+        <v>263.41458</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>212</v>
+      </c>
+      <c r="B774" s="1" t="n">
+        <v>0.7173325358449074</v>
+      </c>
+      <c r="C774" t="n">
+        <v>97</v>
+      </c>
+      <c r="D774" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E774" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F774" t="n">
+        <v>262.67136</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>213</v>
+      </c>
+      <c r="B775" s="1" t="n">
+        <v>0.7180246380092592</v>
+      </c>
+      <c r="C775" t="n">
+        <v>97</v>
+      </c>
+      <c r="D775" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E775" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F775" t="n">
+        <v>262.1484</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>214</v>
+      </c>
+      <c r="B776" s="1" t="n">
+        <v>0.71871854625</v>
+      </c>
+      <c r="C776" t="n">
+        <v>97</v>
+      </c>
+      <c r="D776" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E776" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F776" t="n">
+        <v>261.981</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>215</v>
+      </c>
+      <c r="B777" s="1" t="n">
+        <v>0.719412291875</v>
+      </c>
+      <c r="C777" t="n">
+        <v>97</v>
+      </c>
+      <c r="D777" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E777" t="n">
+        <v>41.835</v>
+      </c>
+      <c r="F777" t="n">
+        <v>261.71976</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>216</v>
+      </c>
+      <c r="B778" s="1" t="n">
+        <v>0.7201076148958333</v>
+      </c>
+      <c r="C778" t="n">
+        <v>97</v>
+      </c>
+      <c r="D778" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="E778" t="n">
+        <v>41.805</v>
+      </c>
+      <c r="F778" t="n">
+        <v>261.19764</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>217</v>
+      </c>
+      <c r="B779" s="1" t="n">
+        <v>0.7208021093981481</v>
+      </c>
+      <c r="C779" t="n">
+        <v>97</v>
+      </c>
+      <c r="D779" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E779" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F779" t="n">
+        <v>261.981</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>218</v>
+      </c>
+      <c r="B780" s="1" t="n">
+        <v>0.7214972973263889</v>
+      </c>
+      <c r="C780" t="n">
+        <v>97</v>
+      </c>
+      <c r="D780" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E780" t="n">
+        <v>41.82</v>
+      </c>
+      <c r="F780" t="n">
+        <v>262.46232</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>219</v>
+      </c>
+      <c r="B781" s="1" t="n">
+        <v>0.7221892346527778</v>
+      </c>
+      <c r="C781" t="n">
+        <v>97</v>
+      </c>
+      <c r="D781" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E781" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F781" t="n">
+        <v>263.3202</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>220</v>
+      </c>
+      <c r="B782" s="1" t="n">
+        <v>0.7228822510532407</v>
+      </c>
+      <c r="C782" t="n">
+        <v>97</v>
+      </c>
+      <c r="D782" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E782" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F782" t="n">
+        <v>264.1128</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>221</v>
+      </c>
+      <c r="B783" s="1" t="n">
+        <v>0.7235772000694445</v>
+      </c>
+      <c r="C783" t="n">
+        <v>97</v>
+      </c>
+      <c r="D783" t="n">
+        <v>6.308</v>
+      </c>
+      <c r="E783" t="n">
+        <v>41.745</v>
+      </c>
+      <c r="F783" t="n">
+        <v>263.32746</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>222</v>
+      </c>
+      <c r="B784" s="1" t="n">
+        <v>0.7242710258449074</v>
+      </c>
+      <c r="C784" t="n">
+        <v>97</v>
+      </c>
+      <c r="D784" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E784" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F784" t="n">
+        <v>263.277</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>223</v>
+      </c>
+      <c r="B785" s="1" t="n">
+        <v>0.7249667251967592</v>
+      </c>
+      <c r="C785" t="n">
+        <v>97</v>
+      </c>
+      <c r="D785" t="n">
+        <v>6.304</v>
+      </c>
+      <c r="E785" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="F785" t="n">
+        <v>263.8224</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>224</v>
+      </c>
+      <c r="B786" s="1" t="n">
+        <v>0.7256615464236111</v>
+      </c>
+      <c r="C786" t="n">
+        <v>97</v>
+      </c>
+      <c r="D786" t="n">
+        <v>6.296</v>
+      </c>
+      <c r="E786" t="n">
+        <v>41.895</v>
+      </c>
+      <c r="F786" t="n">
+        <v>263.77092</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>226</v>
+      </c>
+      <c r="B787" s="1" t="n">
+        <v>0.7270475691319445</v>
+      </c>
+      <c r="C787" t="n">
+        <v>97</v>
+      </c>
+      <c r="D787" t="n">
+        <v>6.076000000000001</v>
+      </c>
+      <c r="E787" t="n">
+        <v>41.355</v>
+      </c>
+      <c r="F787" t="n">
+        <v>251.27298</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>227</v>
+      </c>
+      <c r="B788" s="1" t="n">
+        <v>0.7277420022453703</v>
+      </c>
+      <c r="C788" t="n">
+        <v>97</v>
+      </c>
+      <c r="D788" t="n">
+        <v>5.636</v>
+      </c>
+      <c r="E788" t="n">
+        <v>40.44</v>
+      </c>
+      <c r="F788" t="n">
+        <v>227.91984</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>230</v>
+      </c>
+      <c r="B789" s="1" t="n">
+        <v>0.7298247674421297</v>
+      </c>
+      <c r="C789" t="n">
+        <v>97</v>
+      </c>
+      <c r="D789" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E789" t="n">
+        <v>41.505</v>
+      </c>
+      <c r="F789" t="n">
+        <v>264.8019</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>232</v>
+      </c>
+      <c r="B790" s="1" t="n">
+        <v>0.7312128165277778</v>
+      </c>
+      <c r="C790" t="n">
+        <v>97</v>
+      </c>
+      <c r="D790" t="n">
+        <v>6.376</v>
+      </c>
+      <c r="E790" t="n">
+        <v>41.535</v>
+      </c>
+      <c r="F790" t="n">
+        <v>264.82716</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>233</v>
+      </c>
+      <c r="B791" s="1" t="n">
+        <v>0.7319072523148148</v>
+      </c>
+      <c r="C791" t="n">
+        <v>97</v>
+      </c>
+      <c r="D791" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="E791" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="F791" t="n">
+        <v>262.9284</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>234</v>
+      </c>
+      <c r="B792" s="1" t="n">
+        <v>0.7326017098263889</v>
+      </c>
+      <c r="C792" t="n">
+        <v>97</v>
+      </c>
+      <c r="D792" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="E792" t="n">
+        <v>41.64</v>
+      </c>
+      <c r="F792" t="n">
+        <v>263.49792</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>235</v>
+      </c>
+      <c r="B793" s="1" t="n">
+        <v>0.7332953953587963</v>
+      </c>
+      <c r="C793" t="n">
+        <v>97</v>
+      </c>
+      <c r="D793" t="n">
+        <v>6.336</v>
+      </c>
+      <c r="E793" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="F793" t="n">
+        <v>263.736</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>236</v>
+      </c>
+      <c r="B794" s="1" t="n">
+        <v>0.7339906837384259</v>
+      </c>
+      <c r="C794" t="n">
+        <v>97</v>
+      </c>
+      <c r="D794" t="n">
+        <v>6.344</v>
+      </c>
+      <c r="E794" t="n">
+        <v>41.685</v>
+      </c>
+      <c r="F794" t="n">
+        <v>264.44964</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>237</v>
+      </c>
+      <c r="B795" s="1" t="n">
+        <v>0.7346846601388889</v>
+      </c>
+      <c r="C795" t="n">
+        <v>97</v>
+      </c>
+      <c r="D795" t="n">
+        <v>6.332</v>
+      </c>
+      <c r="E795" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="F795" t="n">
+        <v>263.5695</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>238</v>
+      </c>
+      <c r="B796" s="1" t="n">
+        <v>0.7353775389583334</v>
+      </c>
+      <c r="C796" t="n">
+        <v>97</v>
+      </c>
+      <c r="D796" t="n">
+        <v>6.316</v>
+      </c>
+      <c r="E796" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F796" t="n">
+        <v>263.3772</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>239</v>
+      </c>
+      <c r="B797" s="1" t="n">
+        <v>0.7360723137268518</v>
+      </c>
+      <c r="C797" t="n">
+        <v>97</v>
+      </c>
+      <c r="D797" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E797" t="n">
+        <v>40.665</v>
+      </c>
+      <c r="F797" t="n">
+        <v>243.66468</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>240</v>
+      </c>
+      <c r="B798" s="1" t="n">
+        <v>0.7367665446412037</v>
+      </c>
+      <c r="C798" t="n">
+        <v>97</v>
+      </c>
+      <c r="D798" t="n">
+        <v>6.156</v>
+      </c>
+      <c r="E798" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="F798" t="n">
+        <v>253.56564</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>241</v>
+      </c>
+      <c r="B799" s="1" t="n">
+        <v>0.7374609680555555</v>
+      </c>
+      <c r="C799" t="n">
+        <v>97</v>
+      </c>
+      <c r="D799" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="E799" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F799" t="n">
+        <v>253.3404</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>242</v>
+      </c>
+      <c r="B800" s="1" t="n">
+        <v>0.7381552074768518</v>
+      </c>
+      <c r="C800" t="n">
+        <v>97</v>
+      </c>
+      <c r="D800" t="n">
+        <v>6.336</v>
+      </c>
+      <c r="E800" t="n">
+        <v>41.595</v>
+      </c>
+      <c r="F800" t="n">
+        <v>263.54592</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>243</v>
+      </c>
+      <c r="B801" s="1" t="n">
+        <v>0.7388480141898148</v>
+      </c>
+      <c r="C801" t="n">
+        <v>97</v>
+      </c>
+      <c r="D801" t="n">
+        <v>6.316</v>
+      </c>
+      <c r="E801" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="F801" t="n">
+        <v>262.9035</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>245</v>
+      </c>
+      <c r="B802" s="1" t="n">
+        <v>0.7402376435532407</v>
+      </c>
+      <c r="C802" t="n">
+        <v>97</v>
+      </c>
+      <c r="D802" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E802" t="n">
+        <v>41.715</v>
+      </c>
+      <c r="F802" t="n">
+        <v>262.13706</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>246</v>
+      </c>
+      <c r="B803" s="1" t="n">
+        <v>0.740933000775463</v>
+      </c>
+      <c r="C803" t="n">
+        <v>97</v>
+      </c>
+      <c r="D803" t="n">
+        <v>6.384</v>
+      </c>
+      <c r="E803" t="n">
+        <v>42.465</v>
+      </c>
+      <c r="F803" t="n">
+        <v>271.09656</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>247</v>
+      </c>
+      <c r="B804" s="1" t="n">
+        <v>0.7416289740046296</v>
+      </c>
+      <c r="C804" t="n">
+        <v>97</v>
+      </c>
+      <c r="D804" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E804" t="n">
+        <v>41.775</v>
+      </c>
+      <c r="F804" t="n">
+        <v>262.1799</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>248</v>
+      </c>
+      <c r="B805" s="1" t="n">
+        <v>0.742318855138889</v>
+      </c>
+      <c r="C805" t="n">
+        <v>97</v>
+      </c>
+      <c r="D805" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E805" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F805" t="n">
+        <v>262.2528</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>250</v>
+      </c>
+      <c r="B806" s="1" t="n">
+        <v>0.7437068848263889</v>
+      </c>
+      <c r="C806" t="n">
+        <v>97</v>
+      </c>
+      <c r="D806" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E806" t="n">
+        <v>41.745</v>
+      </c>
+      <c r="F806" t="n">
+        <v>262.65954</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>251</v>
+      </c>
+      <c r="B807" s="1" t="n">
+        <v>0.7444025444328704</v>
+      </c>
+      <c r="C807" t="n">
+        <v>97</v>
+      </c>
+      <c r="D807" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E807" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F807" t="n">
+        <v>262.0644</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>252</v>
+      </c>
+      <c r="B808" s="1" t="n">
+        <v>0.7450948547800926</v>
+      </c>
+      <c r="C808" t="n">
+        <v>97</v>
+      </c>
+      <c r="D808" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E808" t="n">
+        <v>41.745</v>
+      </c>
+      <c r="F808" t="n">
+        <v>261.82464</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>253</v>
+      </c>
+      <c r="B809" s="1" t="n">
+        <v>0.7457921735416666</v>
+      </c>
+      <c r="C809" t="n">
+        <v>97</v>
+      </c>
+      <c r="D809" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E809" t="n">
+        <v>41.745</v>
+      </c>
+      <c r="F809" t="n">
+        <v>261.49068</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>254</v>
+      </c>
+      <c r="B810" s="1" t="n">
+        <v>0.7464833881018518</v>
+      </c>
+      <c r="C810" t="n">
+        <v>97</v>
+      </c>
+      <c r="D810" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="E810" t="n">
+        <v>42.015</v>
+      </c>
+      <c r="F810" t="n">
+        <v>262.50972</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>0</v>
+      </c>
+      <c r="B811" s="1" t="n">
+        <v>0.7471787551504629</v>
+      </c>
+      <c r="C811" t="n">
+        <v>97</v>
+      </c>
+      <c r="D811" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E811" t="n">
+        <v>42.61499999999999</v>
+      </c>
+      <c r="F811" t="n">
+        <v>265.7471399999999</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>2</v>
+      </c>
+      <c r="B812" s="1" t="n">
+        <v>0.748566166087963</v>
+      </c>
+      <c r="C812" t="n">
+        <v>97</v>
+      </c>
+      <c r="D812" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E812" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="F812" t="n">
+        <v>265.84068</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>3</v>
+      </c>
+      <c r="B813" s="1" t="n">
+        <v>0.7492585799189815</v>
+      </c>
+      <c r="C813" t="n">
+        <v>97</v>
+      </c>
+      <c r="D813" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E813" t="n">
+        <v>42.61499999999999</v>
+      </c>
+      <c r="F813" t="n">
+        <v>265.40622</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>4</v>
+      </c>
+      <c r="B814" s="1" t="n">
+        <v>0.7499558965856482</v>
+      </c>
+      <c r="C814" t="n">
+        <v>97</v>
+      </c>
+      <c r="D814" t="n">
+        <v>6.232</v>
+      </c>
+      <c r="E814" t="n">
+        <v>42.675</v>
+      </c>
+      <c r="F814" t="n">
+        <v>265.9506</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>6</v>
+      </c>
+      <c r="B815" s="1" t="n">
+        <v>0.7513472091435185</v>
+      </c>
+      <c r="C815" t="n">
+        <v>97</v>
+      </c>
+      <c r="D815" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E815" t="n">
+        <v>42.585</v>
+      </c>
+      <c r="F815" t="n">
+        <v>266.5821</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>7</v>
+      </c>
+      <c r="B816" s="1" t="n">
+        <v>0.7520363886342593</v>
+      </c>
+      <c r="C816" t="n">
+        <v>97</v>
+      </c>
+      <c r="D816" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E816" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F816" t="n">
+        <v>266.5056</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>9</v>
+      </c>
+      <c r="B817" s="1" t="n">
+        <v>0.7534235136458333</v>
+      </c>
+      <c r="C817" t="n">
+        <v>97</v>
+      </c>
+      <c r="D817" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E817" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F817" t="n">
+        <v>265.6536</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>10</v>
+      </c>
+      <c r="B818" s="1" t="n">
+        <v>0.7541180407291667</v>
+      </c>
+      <c r="C818" t="n">
+        <v>97</v>
+      </c>
+      <c r="D818" t="n">
+        <v>6.232</v>
+      </c>
+      <c r="E818" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F818" t="n">
+        <v>265.4832</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>11</v>
+      </c>
+      <c r="B819" s="1" t="n">
+        <v>0.7548123472337963</v>
+      </c>
+      <c r="C819" t="n">
+        <v>97</v>
+      </c>
+      <c r="D819" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E819" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F819" t="n">
+        <v>265.6536</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>12</v>
+      </c>
+      <c r="B820" s="1" t="n">
+        <v>0.7555077519791666</v>
+      </c>
+      <c r="C820" t="n">
+        <v>97</v>
+      </c>
+      <c r="D820" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E820" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F820" t="n">
+        <v>265.6536</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>14</v>
+      </c>
+      <c r="B821" s="1" t="n">
+        <v>0.7568941300578704</v>
+      </c>
+      <c r="C821" t="n">
+        <v>97</v>
+      </c>
+      <c r="D821" t="n">
+        <v>6.204</v>
+      </c>
+      <c r="E821" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F821" t="n">
+        <v>264.01122</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>16</v>
+      </c>
+      <c r="B822" s="1" t="n">
+        <v>0.7582847967476852</v>
+      </c>
+      <c r="C822" t="n">
+        <v>97</v>
+      </c>
+      <c r="D822" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E822" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F822" t="n">
+        <v>265.3128</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>17</v>
+      </c>
+      <c r="B823" s="1" t="n">
+        <v>0.7589773622222222</v>
+      </c>
+      <c r="C823" t="n">
+        <v>97</v>
+      </c>
+      <c r="D823" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E823" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="F823" t="n">
+        <v>264.93912</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>20</v>
+      </c>
+      <c r="B824" s="1" t="n">
+        <v>0.7610589338541666</v>
+      </c>
+      <c r="C824" t="n">
+        <v>97</v>
+      </c>
+      <c r="D824" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E824" t="n">
+        <v>42.585</v>
+      </c>
+      <c r="F824" t="n">
+        <v>264.36768</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>22</v>
+      </c>
+      <c r="B825" s="1" t="n">
+        <v>0.7624483827893519</v>
+      </c>
+      <c r="C825" t="n">
+        <v>97</v>
+      </c>
+      <c r="D825" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E825" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F825" t="n">
+        <v>263.841</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>23</v>
+      </c>
+      <c r="B826" s="1" t="n">
+        <v>0.7631424297106482</v>
+      </c>
+      <c r="C826" t="n">
+        <v>97</v>
+      </c>
+      <c r="D826" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E826" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F826" t="n">
+        <v>263.9496</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>26</v>
+      </c>
+      <c r="B827" s="1" t="n">
+        <v>0.7652256605439816</v>
+      </c>
+      <c r="C827" t="n">
+        <v>97</v>
+      </c>
+      <c r="D827" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="E827" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F827" t="n">
+        <v>263.7792</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>27</v>
+      </c>
+      <c r="B828" s="1" t="n">
+        <v>0.7659180820486111</v>
+      </c>
+      <c r="C828" t="n">
+        <v>97</v>
+      </c>
+      <c r="D828" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="E828" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F828" t="n">
+        <v>263.50056</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>28</v>
+      </c>
+      <c r="B829" s="1" t="n">
+        <v>0.7666156889351853</v>
+      </c>
+      <c r="C829" t="n">
+        <v>97</v>
+      </c>
+      <c r="D829" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E829" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F829" t="n">
+        <v>263.67078</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>29</v>
+      </c>
+      <c r="B830" s="1" t="n">
+        <v>0.7673056161458334</v>
+      </c>
+      <c r="C830" t="n">
+        <v>97</v>
+      </c>
+      <c r="D830" t="n">
+        <v>6.204</v>
+      </c>
+      <c r="E830" t="n">
+        <v>42.555</v>
+      </c>
+      <c r="F830" t="n">
+        <v>264.01122</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>30</v>
+      </c>
+      <c r="B831" s="1" t="n">
+        <v>0.7680002331597222</v>
+      </c>
+      <c r="C831" t="n">
+        <v>97</v>
+      </c>
+      <c r="D831" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E831" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="F831" t="n">
+        <v>263.71584</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>31</v>
+      </c>
+      <c r="B832" s="1" t="n">
+        <v>0.7686958219675926</v>
+      </c>
+      <c r="C832" t="n">
+        <v>97</v>
+      </c>
+      <c r="D832" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E832" t="n">
+        <v>42.585</v>
+      </c>
+      <c r="F832" t="n">
+        <v>264.027</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>33</v>
+      </c>
+      <c r="B833" s="1" t="n">
+        <v>0.7700870711458334</v>
+      </c>
+      <c r="C833" t="n">
+        <v>97</v>
+      </c>
+      <c r="D833" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E833" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="F833" t="n">
+        <v>263.562</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>34</v>
+      </c>
+      <c r="B834" s="1" t="n">
+        <v>0.7707782039236111</v>
+      </c>
+      <c r="C834" t="n">
+        <v>97</v>
+      </c>
+      <c r="D834" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E834" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="F834" t="n">
+        <v>263.90208</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>35</v>
+      </c>
+      <c r="B835" s="1" t="n">
+        <v>0.7714720864583333</v>
+      </c>
+      <c r="C835" t="n">
+        <v>97</v>
+      </c>
+      <c r="D835" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E835" t="n">
+        <v>42.495</v>
+      </c>
+      <c r="F835" t="n">
+        <v>264.3189</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>36</v>
+      </c>
+      <c r="B836" s="1" t="n">
+        <v>0.7721653907870371</v>
+      </c>
+      <c r="C836" t="n">
+        <v>97</v>
+      </c>
+      <c r="D836" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="E836" t="n">
+        <v>42.375</v>
+      </c>
+      <c r="F836" t="n">
+        <v>263.403</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>37</v>
+      </c>
+      <c r="B837" s="1" t="n">
+        <v>0.7728625477083334</v>
+      </c>
+      <c r="C837" t="n">
+        <v>97</v>
+      </c>
+      <c r="D837" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="E837" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="F837" t="n">
+        <v>263.49624</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>39</v>
+      </c>
+      <c r="B838" s="1" t="n">
+        <v>0.7742537960995372</v>
+      </c>
+      <c r="C838" t="n">
+        <v>97</v>
+      </c>
+      <c r="D838" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E838" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="F838" t="n">
+        <v>262.97088</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>40</v>
+      </c>
+      <c r="B839" s="1" t="n">
+        <v>0.7749451737847223</v>
+      </c>
+      <c r="C839" t="n">
+        <v>97</v>
+      </c>
+      <c r="D839" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E839" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="F839" t="n">
+        <v>262.97088</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>43</v>
+      </c>
+      <c r="B840" s="1" t="n">
+        <v>0.7770242601273147</v>
+      </c>
+      <c r="C840" t="n">
+        <v>97</v>
+      </c>
+      <c r="D840" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="E840" t="n">
+        <v>42.315</v>
+      </c>
+      <c r="F840" t="n">
+        <v>262.86078</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>45</v>
+      </c>
+      <c r="B841" s="1" t="n">
+        <v>0.7784144343171296</v>
+      </c>
+      <c r="C841" t="n">
+        <v>97</v>
+      </c>
+      <c r="D841" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E841" t="n">
+        <v>42.23999999999999</v>
+      </c>
+      <c r="F841" t="n">
+        <v>263.0707199999999</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>46</v>
+      </c>
+      <c r="B842" s="1" t="n">
+        <v>0.7791064780787038</v>
+      </c>
+      <c r="C842" t="n">
+        <v>97</v>
+      </c>
+      <c r="D842" t="n">
+        <v>6.224</v>
+      </c>
+      <c r="E842" t="n">
+        <v>42.225</v>
+      </c>
+      <c r="F842" t="n">
+        <v>262.8084</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>47</v>
+      </c>
+      <c r="B843" s="1" t="n">
+        <v>0.7798014057291667</v>
+      </c>
+      <c r="C843" t="n">
+        <v>97</v>
+      </c>
+      <c r="D843" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E843" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="F843" t="n">
+        <v>262.69704</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>48</v>
+      </c>
+      <c r="B844" s="1" t="n">
+        <v>0.7804950709606481</v>
+      </c>
+      <c r="C844" t="n">
+        <v>97</v>
+      </c>
+      <c r="D844" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E844" t="n">
+        <v>42.195</v>
+      </c>
+      <c r="F844" t="n">
+        <v>263.12802</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>49</v>
+      </c>
+      <c r="B845" s="1" t="n">
+        <v>0.7811892475462963</v>
+      </c>
+      <c r="C845" t="n">
+        <v>97</v>
+      </c>
+      <c r="D845" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="E845" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="F845" t="n">
+        <v>263.16576</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>50</v>
+      </c>
+      <c r="B846" s="1" t="n">
+        <v>0.7818882209143518</v>
+      </c>
+      <c r="C846" t="n">
+        <v>97</v>
+      </c>
+      <c r="D846" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E846" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="F846" t="n">
+        <v>263.1466799999999</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>51</v>
+      </c>
+      <c r="B847" s="1" t="n">
+        <v>0.7825799856712963</v>
+      </c>
+      <c r="C847" t="n">
+        <v>97</v>
+      </c>
+      <c r="D847" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E847" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="F847" t="n">
+        <v>263.50272</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>52</v>
+      </c>
+      <c r="B848" s="1" t="n">
+        <v>0.7832716469097223</v>
+      </c>
+      <c r="C848" t="n">
+        <v>97</v>
+      </c>
+      <c r="D848" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E848" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="F848" t="n">
+        <v>264.34512</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>53</v>
+      </c>
+      <c r="B849" s="1" t="n">
+        <v>0.7839657848379629</v>
+      </c>
+      <c r="C849" t="n">
+        <v>97</v>
+      </c>
+      <c r="D849" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E849" t="n">
+        <v>42.105</v>
+      </c>
+      <c r="F849" t="n">
+        <v>265.2615</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>56</v>
+      </c>
+      <c r="B850" s="1" t="n">
+        <v>0.7860472767939815</v>
+      </c>
+      <c r="C850" t="n">
+        <v>97</v>
+      </c>
+      <c r="D850" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E850" t="n">
+        <v>42</v>
+      </c>
+      <c r="F850" t="n">
+        <v>264.096</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>57</v>
+      </c>
+      <c r="B851" s="1" t="n">
+        <v>0.7867426107175927</v>
+      </c>
+      <c r="C851" t="n">
+        <v>97</v>
+      </c>
+      <c r="D851" t="n">
+        <v>6.316</v>
+      </c>
+      <c r="E851" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="F851" t="n">
+        <v>239.88168</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>58</v>
+      </c>
+      <c r="B852" s="1" t="n">
+        <v>0.7874360724884258</v>
+      </c>
+      <c r="C852" t="n">
+        <v>97</v>
+      </c>
+      <c r="D852" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E852" t="n">
+        <v>41.865</v>
+      </c>
+      <c r="F852" t="n">
+        <v>263.41458</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>59</v>
+      </c>
+      <c r="B853" s="1" t="n">
+        <v>0.7881305023148147</v>
+      </c>
+      <c r="C853" t="n">
+        <v>97</v>
+      </c>
+      <c r="D853" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E853" t="n">
+        <v>41.925</v>
+      </c>
+      <c r="F853" t="n">
+        <v>264.1275</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>60</v>
+      </c>
+      <c r="B854" s="1" t="n">
+        <v>0.7888231899189815</v>
+      </c>
+      <c r="C854" t="n">
+        <v>97</v>
+      </c>
+      <c r="D854" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E854" t="n">
+        <v>41.865</v>
+      </c>
+      <c r="F854" t="n">
+        <v>263.7495</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>61</v>
+      </c>
+      <c r="B855" s="1" t="n">
+        <v>0.7895219142592592</v>
+      </c>
+      <c r="C855" t="n">
+        <v>97</v>
+      </c>
+      <c r="D855" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E855" t="n">
+        <v>41.835</v>
+      </c>
+      <c r="F855" t="n">
+        <v>263.22582</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>62</v>
+      </c>
+      <c r="B856" s="1" t="n">
+        <v>0.7902151801388889</v>
+      </c>
+      <c r="C856" t="n">
+        <v>97</v>
+      </c>
+      <c r="D856" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E856" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F856" t="n">
+        <v>262.77552</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>63</v>
+      </c>
+      <c r="B857" s="1" t="n">
+        <v>0.7909108010995372</v>
+      </c>
+      <c r="C857" t="n">
+        <v>97</v>
+      </c>
+      <c r="D857" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E857" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="F857" t="n">
+        <v>262.77552</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>64</v>
+      </c>
+      <c r="B858" s="1" t="n">
+        <v>0.7915998422916667</v>
+      </c>
+      <c r="C858" t="n">
+        <v>97</v>
+      </c>
+      <c r="D858" t="n">
+        <v>6.288</v>
+      </c>
+      <c r="E858" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F858" t="n">
+        <v>262.58688</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>65</v>
+      </c>
+      <c r="B859" s="1" t="n">
+        <v>0.7922948895138889</v>
+      </c>
+      <c r="C859" t="n">
+        <v>97</v>
+      </c>
+      <c r="D859" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E859" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F859" t="n">
+        <v>262.75392</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>66</v>
+      </c>
+      <c r="B860" s="1" t="n">
+        <v>0.7929888935185184</v>
+      </c>
+      <c r="C860" t="n">
+        <v>97</v>
+      </c>
+      <c r="D860" t="n">
+        <v>6.296</v>
+      </c>
+      <c r="E860" t="n">
+        <v>41.745</v>
+      </c>
+      <c r="F860" t="n">
+        <v>262.82652</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>67</v>
+      </c>
+      <c r="B861" s="1" t="n">
+        <v>0.7936839824421296</v>
+      </c>
+      <c r="C861" t="n">
+        <v>97</v>
+      </c>
+      <c r="D861" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E861" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F861" t="n">
+        <v>262.23132</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>68</v>
+      </c>
+      <c r="B862" s="1" t="n">
+        <v>0.7943767213310186</v>
+      </c>
+      <c r="C862" t="n">
+        <v>97</v>
+      </c>
+      <c r="D862" t="n">
+        <v>6.292</v>
+      </c>
+      <c r="E862" t="n">
+        <v>41.655</v>
+      </c>
+      <c r="F862" t="n">
+        <v>262.09326</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>69</v>
+      </c>
+      <c r="B863" s="1" t="n">
+        <v>0.7950939265625</v>
+      </c>
+      <c r="C863" t="n">
+        <v>97</v>
+      </c>
+      <c r="D863" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E863" t="n">
+        <v>41.595</v>
+      </c>
+      <c r="F863" t="n">
+        <v>261.38298</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>70</v>
+      </c>
+      <c r="B864" s="1" t="n">
+        <v>0.7957653712615741</v>
+      </c>
+      <c r="C864" t="n">
+        <v>97</v>
+      </c>
+      <c r="D864" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="E864" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F864" t="n">
+        <v>258.74304</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>71</v>
+      </c>
+      <c r="B865" s="1" t="n">
+        <v>0.7964613711921296</v>
+      </c>
+      <c r="C865" t="n">
+        <v>97</v>
+      </c>
+      <c r="D865" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E865" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="F865" t="n">
+        <v>260.6016</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>73</v>
+      </c>
+      <c r="B866" s="1" t="n">
+        <v>0.7978461557291666</v>
+      </c>
+      <c r="C866" t="n">
+        <v>97</v>
+      </c>
+      <c r="D866" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E866" t="n">
+        <v>41.61</v>
+      </c>
+      <c r="F866" t="n">
+        <v>260.14572</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>74</v>
+      </c>
+      <c r="B867" s="1" t="n">
+        <v>0.7985414057986111</v>
+      </c>
+      <c r="C867" t="n">
+        <v>97</v>
+      </c>
+      <c r="D867" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E867" t="n">
+        <v>41.625</v>
+      </c>
+      <c r="F867" t="n">
+        <v>260.2395</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>75</v>
+      </c>
+      <c r="B868" s="1" t="n">
+        <v>0.7992365224652779</v>
+      </c>
+      <c r="C868" t="n">
+        <v>97</v>
+      </c>
+      <c r="D868" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E868" t="n">
+        <v>41.655</v>
+      </c>
+      <c r="F868" t="n">
+        <v>260.59368</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>76</v>
+      </c>
+      <c r="B869" s="1" t="n">
+        <v>0.799929129699074</v>
+      </c>
+      <c r="C869" t="n">
+        <v>97</v>
+      </c>
+      <c r="D869" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="E869" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="F869" t="n">
+        <v>261.18756</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>77</v>
+      </c>
+      <c r="B870" s="1" t="n">
+        <v>0.8006245200694445</v>
+      </c>
+      <c r="C870" t="n">
+        <v>97</v>
+      </c>
+      <c r="D870" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E870" t="n">
+        <v>41.595</v>
+      </c>
+      <c r="F870" t="n">
+        <v>260.88384</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>78</v>
+      </c>
+      <c r="B871" s="1" t="n">
+        <v>0.8013195844675927</v>
+      </c>
+      <c r="C871" t="n">
+        <v>97</v>
+      </c>
+      <c r="D871" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E871" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="F871" t="n">
+        <v>260.2692</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>79</v>
+      </c>
+      <c r="B872" s="1" t="n">
+        <v>0.8020120899884259</v>
+      </c>
+      <c r="C872" t="n">
+        <v>97</v>
+      </c>
+      <c r="D872" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E872" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="F872" t="n">
+        <v>260.6016</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>80</v>
+      </c>
+      <c r="B873" s="1" t="n">
+        <v>0.8027057776620371</v>
+      </c>
+      <c r="C873" t="n">
+        <v>97</v>
+      </c>
+      <c r="D873" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E873" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="F873" t="n">
+        <v>260.41344</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>81</v>
+      </c>
+      <c r="B874" s="1" t="n">
+        <v>0.8034009710416667</v>
+      </c>
+      <c r="C874" t="n">
+        <v>97</v>
+      </c>
+      <c r="D874" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E874" t="n">
+        <v>41.475</v>
+      </c>
+      <c r="F874" t="n">
+        <v>260.2971</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>82</v>
+      </c>
+      <c r="B875" s="1" t="n">
+        <v>0.8040951240277777</v>
+      </c>
+      <c r="C875" t="n">
+        <v>97</v>
+      </c>
+      <c r="D875" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E875" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="F875" t="n">
+        <v>260.7456</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>83</v>
+      </c>
+      <c r="B876" s="1" t="n">
+        <v>0.8047908937615741</v>
+      </c>
+      <c r="C876" t="n">
+        <v>97</v>
+      </c>
+      <c r="D876" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E876" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F876" t="n">
+        <v>260.1576</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>85</v>
+      </c>
+      <c r="B877" s="1" t="n">
+        <v>0.8061767254050926</v>
+      </c>
+      <c r="C877" t="n">
+        <v>97</v>
+      </c>
+      <c r="D877" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E877" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F877" t="n">
+        <v>259.8264</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>86</v>
+      </c>
+      <c r="B878" s="1" t="n">
+        <v>0.8068715607291665</v>
+      </c>
+      <c r="C878" t="n">
+        <v>97</v>
+      </c>
+      <c r="D878" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="E878" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F878" t="n">
+        <v>259.11912</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>87</v>
+      </c>
+      <c r="B879" s="1" t="n">
+        <v>0.8075648277430555</v>
+      </c>
+      <c r="C879" t="n">
+        <v>97</v>
+      </c>
+      <c r="D879" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E879" t="n">
+        <v>41.385</v>
+      </c>
+      <c r="F879" t="n">
+        <v>259.23564</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>88</v>
+      </c>
+      <c r="B880" s="1" t="n">
+        <v>0.8082616158564815</v>
+      </c>
+      <c r="C880" t="n">
+        <v>97</v>
+      </c>
+      <c r="D880" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E880" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F880" t="n">
+        <v>259.164</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>89</v>
+      </c>
+      <c r="B881" s="1" t="n">
+        <v>0.8089530964583334</v>
+      </c>
+      <c r="C881" t="n">
+        <v>97</v>
+      </c>
+      <c r="D881" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E881" t="n">
+        <v>41.385</v>
+      </c>
+      <c r="F881" t="n">
+        <v>258.90456</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>90</v>
+      </c>
+      <c r="B882" s="1" t="n">
+        <v>0.8096467271064814</v>
+      </c>
+      <c r="C882" t="n">
+        <v>97</v>
+      </c>
+      <c r="D882" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E882" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="F882" t="n">
+        <v>258.81072</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>91</v>
+      </c>
+      <c r="B883" s="1" t="n">
+        <v>0.8103476457291666</v>
+      </c>
+      <c r="C883" t="n">
+        <v>97</v>
+      </c>
+      <c r="D883" t="n">
+        <v>6.252</v>
+      </c>
+      <c r="E883" t="n">
+        <v>41.385</v>
+      </c>
+      <c r="F883" t="n">
+        <v>258.73902</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>92</v>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>0.8110356596527778</v>
+      </c>
+      <c r="C884" t="n">
+        <v>97</v>
+      </c>
+      <c r="D884" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E884" t="n">
+        <v>41.415</v>
+      </c>
+      <c r="F884" t="n">
+        <v>259.09224</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>93</v>
+      </c>
+      <c r="B885" s="1" t="n">
+        <v>0.8117295109837963</v>
+      </c>
+      <c r="C885" t="n">
+        <v>97</v>
+      </c>
+      <c r="D885" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E885" t="n">
+        <v>41.355</v>
+      </c>
+      <c r="F885" t="n">
+        <v>258.71688</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>94</v>
+      </c>
+      <c r="B886" s="1" t="n">
+        <v>0.8124269763773149</v>
+      </c>
+      <c r="C886" t="n">
+        <v>97</v>
+      </c>
+      <c r="D886" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E886" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="F886" t="n">
+        <v>258.43536</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>95</v>
+      </c>
+      <c r="B887" s="1" t="n">
+        <v>0.8131190640277777</v>
+      </c>
+      <c r="C887" t="n">
+        <v>97</v>
+      </c>
+      <c r="D887" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E887" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F887" t="n">
+        <v>258.7884</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>96</v>
+      </c>
+      <c r="B888" s="1" t="n">
+        <v>0.8138152462847222</v>
+      </c>
+      <c r="C888" t="n">
+        <v>97</v>
+      </c>
+      <c r="D888" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="E888" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F888" t="n">
+        <v>258.74304</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>97</v>
+      </c>
+      <c r="B889" s="1" t="n">
+        <v>0.8145081975925926</v>
+      </c>
+      <c r="C889" t="n">
+        <v>97</v>
+      </c>
+      <c r="D889" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E889" t="n">
+        <v>41.265</v>
+      </c>
+      <c r="F889" t="n">
+        <v>258.48396</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>98</v>
+      </c>
+      <c r="B890" s="1" t="n">
+        <v>0.8152014500347222</v>
+      </c>
+      <c r="C890" t="n">
+        <v>97</v>
+      </c>
+      <c r="D890" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="E890" t="n">
+        <v>41.265</v>
+      </c>
+      <c r="F890" t="n">
+        <v>258.48396</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>99</v>
+      </c>
+      <c r="B891" s="1" t="n">
+        <v>0.8158930426736111</v>
+      </c>
+      <c r="C891" t="n">
+        <v>97</v>
+      </c>
+      <c r="D891" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E891" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="F891" t="n">
+        <v>257.96736</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>100</v>
+      </c>
+      <c r="B892" s="1" t="n">
+        <v>0.8165874498032407</v>
+      </c>
+      <c r="C892" t="n">
+        <v>97</v>
+      </c>
+      <c r="D892" t="n">
+        <v>6.268</v>
+      </c>
+      <c r="E892" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="F892" t="n">
+        <v>257.8028399999999</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>101</v>
+      </c>
+      <c r="B893" s="1" t="n">
+        <v>0.8172814055092592</v>
+      </c>
+      <c r="C893" t="n">
+        <v>97</v>
+      </c>
+      <c r="D893" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="E893" t="n">
+        <v>41.085</v>
+      </c>
+      <c r="F893" t="n">
+        <v>257.84946</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>103</v>
+      </c>
+      <c r="B894" s="1" t="n">
+        <v>0.8186708431828703</v>
+      </c>
+      <c r="C894" t="n">
+        <v>97</v>
+      </c>
+      <c r="D894" t="n">
+        <v>6.272</v>
+      </c>
+      <c r="E894" t="n">
+        <v>41.025</v>
+      </c>
+      <c r="F894" t="n">
+        <v>257.3088</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>105</v>
+      </c>
+      <c r="B895" s="1" t="n">
+        <v>0.8200581981481481</v>
+      </c>
+      <c r="C895" t="n">
+        <v>97</v>
+      </c>
+      <c r="D895" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E895" t="n">
+        <v>40.965</v>
+      </c>
+      <c r="F895" t="n">
+        <v>256.4408999999999</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>109</v>
+      </c>
+      <c r="B896" s="1" t="n">
+        <v>0.8228347073148148</v>
+      </c>
+      <c r="C896" t="n">
+        <v>97</v>
+      </c>
+      <c r="D896" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E896" t="n">
+        <v>39.585</v>
+      </c>
+      <c r="F896" t="n">
+        <v>246.85206</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>110</v>
+      </c>
+      <c r="B897" s="1" t="n">
+        <v>0.8235291489120371</v>
+      </c>
+      <c r="C897" t="n">
+        <v>97</v>
+      </c>
+      <c r="D897" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E897" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="F897" t="n">
+        <v>246.5814</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>112</v>
+      </c>
+      <c r="B898" s="1" t="n">
+        <v>0.8249192648032407</v>
+      </c>
+      <c r="C898" t="n">
+        <v>97</v>
+      </c>
+      <c r="D898" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E898" t="n">
+        <v>39.06</v>
+      </c>
+      <c r="F898" t="n">
+        <v>245.2968</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>113</v>
+      </c>
+      <c r="B899" s="1" t="n">
+        <v>0.8256141762615741</v>
+      </c>
+      <c r="C899" t="n">
+        <v>97</v>
+      </c>
+      <c r="D899" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E899" t="n">
+        <v>38.925</v>
+      </c>
+      <c r="F899" t="n">
+        <v>244.6047</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>115</v>
+      </c>
+      <c r="B900" s="1" t="n">
+        <v>0.8270034428703704</v>
+      </c>
+      <c r="C900" t="n">
+        <v>97</v>
+      </c>
+      <c r="D900" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E900" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="F900" t="n">
+        <v>242.8476</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>117</v>
+      </c>
+      <c r="B901" s="1" t="n">
+        <v>0.8283875478009258</v>
+      </c>
+      <c r="C901" t="n">
+        <v>97</v>
+      </c>
+      <c r="D901" t="n">
+        <v>6.256</v>
+      </c>
+      <c r="E901" t="n">
+        <v>38.46</v>
+      </c>
+      <c r="F901" t="n">
+        <v>240.60576</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>118</v>
+      </c>
+      <c r="B902" s="1" t="n">
+        <v>0.8290821788194443</v>
+      </c>
+      <c r="C902" t="n">
+        <v>97</v>
+      </c>
+      <c r="D902" t="n">
+        <v>6.248</v>
+      </c>
+      <c r="E902" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="F902" t="n">
+        <v>239.73576</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>119</v>
+      </c>
+      <c r="B903" s="1" t="n">
+        <v>0.8297759639699074</v>
+      </c>
+      <c r="C903" t="n">
+        <v>97</v>
+      </c>
+      <c r="D903" t="n">
+        <v>6.236</v>
+      </c>
+      <c r="E903" t="n">
+        <v>38.325</v>
+      </c>
+      <c r="F903" t="n">
+        <v>238.9947</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>120</v>
+      </c>
+      <c r="B904" s="1" t="n">
+        <v>0.8304750003356481</v>
+      </c>
+      <c r="C904" t="n">
+        <v>97</v>
+      </c>
+      <c r="D904" t="n">
+        <v>6.228</v>
+      </c>
+      <c r="E904" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="F904" t="n">
+        <v>238.40784</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>124</v>
+      </c>
+      <c r="B905" s="1" t="n">
+        <v>0.8332474492013888</v>
+      </c>
+      <c r="C905" t="n">
+        <v>97</v>
+      </c>
+      <c r="D905" t="n">
+        <v>6.212</v>
+      </c>
+      <c r="E905" t="n">
+        <v>38.175</v>
+      </c>
+      <c r="F905" t="n">
+        <v>237.1431</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>126</v>
+      </c>
+      <c r="B906" s="1" t="n">
+        <v>0.8346349679976851</v>
+      </c>
+      <c r="C906" t="n">
+        <v>97</v>
+      </c>
+      <c r="D906" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E906" t="n">
+        <v>38.145</v>
+      </c>
+      <c r="F906" t="n">
+        <v>236.80416</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>127</v>
+      </c>
+      <c r="B907" s="1" t="n">
+        <v>0.8353288848379629</v>
+      </c>
+      <c r="C907" t="n">
+        <v>97</v>
+      </c>
+      <c r="D907" t="n">
+        <v>6.208</v>
+      </c>
+      <c r="E907" t="n">
+        <v>38.115</v>
+      </c>
+      <c r="F907" t="n">
+        <v>236.61792</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>129</v>
+      </c>
+      <c r="B908" s="1" t="n">
+        <v>0.8367198550578703</v>
+      </c>
+      <c r="C908" t="n">
+        <v>97</v>
+      </c>
+      <c r="D908" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E908" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="F908" t="n">
+        <v>235.50996</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>131</v>
+      </c>
+      <c r="B909" s="1" t="n">
+        <v>0.838105152662037</v>
+      </c>
+      <c r="C909" t="n">
+        <v>97</v>
+      </c>
+      <c r="D909" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="E909" t="n">
+        <v>37.98</v>
+      </c>
+      <c r="F909" t="n">
+        <v>235.17216</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>132</v>
+      </c>
+      <c r="B910" s="1" t="n">
+        <v>0.8387999173263888</v>
+      </c>
+      <c r="C910" t="n">
+        <v>97</v>
+      </c>
+      <c r="D910" t="n">
+        <v>6.192</v>
+      </c>
+      <c r="E910" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="F910" t="n">
+        <v>235.26504</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>136</v>
+      </c>
+      <c r="B911" s="1" t="n">
+        <v>0.8415770014930555</v>
+      </c>
+      <c r="C911" t="n">
+        <v>97</v>
+      </c>
+      <c r="D911" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E911" t="n">
+        <v>37.905</v>
+      </c>
+      <c r="F911" t="n">
+        <v>235.011</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>137</v>
+      </c>
+      <c r="B912" s="1" t="n">
+        <v>0.8422698631597223</v>
+      </c>
+      <c r="C912" t="n">
+        <v>97</v>
+      </c>
+      <c r="D912" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E912" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F912" t="n">
+        <v>234.546</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>138</v>
+      </c>
+      <c r="B913" s="1" t="n">
+        <v>0.8429652416550926</v>
+      </c>
+      <c r="C913" t="n">
+        <v>97</v>
+      </c>
+      <c r="D913" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E913" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="F913" t="n">
+        <v>234.546</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>140</v>
+      </c>
+      <c r="B914" s="1" t="n">
+        <v>0.8443523729513889</v>
+      </c>
+      <c r="C914" t="n">
+        <v>97</v>
+      </c>
+      <c r="D914" t="n">
+        <v>6.204</v>
+      </c>
+      <c r="E914" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="F914" t="n">
+        <v>234.32508</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>141</v>
+      </c>
+      <c r="B915" s="1" t="n">
+        <v>0.8450467090393519</v>
+      </c>
+      <c r="C915" t="n">
+        <v>97</v>
+      </c>
+      <c r="D915" t="n">
+        <v>6.196</v>
+      </c>
+      <c r="E915" t="n">
+        <v>37.695</v>
+      </c>
+      <c r="F915" t="n">
+        <v>233.55822</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>142</v>
+      </c>
+      <c r="B916" s="1" t="n">
+        <v>0.8457401074768519</v>
+      </c>
+      <c r="C916" t="n">
+        <v>97</v>
+      </c>
+      <c r="D916" t="n">
+        <v>6.188</v>
+      </c>
+      <c r="E916" t="n">
+        <v>37.725</v>
+      </c>
+      <c r="F916" t="n">
+        <v>233.4423</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>143</v>
+      </c>
+      <c r="B917" s="1" t="n">
+        <v>0.8464355075347223</v>
+      </c>
+      <c r="C917" t="n">
+        <v>97</v>
+      </c>
+      <c r="D917" t="n">
+        <v>6.184</v>
+      </c>
+      <c r="E917" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="F917" t="n">
+        <v>233.01312</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>144</v>
+      </c>
+      <c r="B918" s="1" t="n">
+        <v>0.8471278835416667</v>
+      </c>
+      <c r="C918" t="n">
+        <v>97</v>
+      </c>
+      <c r="D918" t="n">
+        <v>6.172</v>
+      </c>
+      <c r="E918" t="n">
+        <v>37.635</v>
+      </c>
+      <c r="F918" t="n">
+        <v>232.28322</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>145</v>
+      </c>
+      <c r="B919" s="1" t="n">
+        <v>0.8478242083333333</v>
+      </c>
+      <c r="C919" t="n">
+        <v>97</v>
+      </c>
+      <c r="D919" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="E919" t="n">
+        <v>37.65</v>
+      </c>
+      <c r="F919" t="n">
+        <v>232.0746</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>147</v>
+      </c>
+      <c r="B920" s="1" t="n">
+        <v>0.8492106348032408</v>
+      </c>
+      <c r="C920" t="n">
+        <v>97</v>
+      </c>
+      <c r="D920" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="E920" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="F920" t="n">
+        <v>231.70476</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>148</v>
+      </c>
+      <c r="B921" s="1" t="n">
+        <v>0.8499074587962964</v>
+      </c>
+      <c r="C921" t="n">
+        <v>97</v>
+      </c>
+      <c r="D921" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="E921" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="F921" t="n">
+        <v>231.85512</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>149</v>
+      </c>
+      <c r="B922" s="1" t="n">
+        <v>0.8506042057060185</v>
+      </c>
+      <c r="C922" t="n">
+        <v>97</v>
+      </c>
+      <c r="D922" t="n">
+        <v>6.172</v>
+      </c>
+      <c r="E922" t="n">
+        <v>37.575</v>
+      </c>
+      <c r="F922" t="n">
+        <v>231.9129</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>151</v>
+      </c>
+      <c r="B923" s="1" t="n">
+        <v>0.8519887241087963</v>
+      </c>
+      <c r="C923" t="n">
+        <v>97</v>
+      </c>
+      <c r="D923" t="n">
+        <v>6.176</v>
+      </c>
+      <c r="E923" t="n">
+        <v>37.575</v>
+      </c>
+      <c r="F923" t="n">
+        <v>232.0632</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>153</v>
+      </c>
+      <c r="B924" s="1" t="n">
+        <v>0.8533798387615741</v>
+      </c>
+      <c r="C924" t="n">
+        <v>97</v>
+      </c>
+      <c r="D924" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E924" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="F924" t="n">
+        <v>232.3062</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>154</v>
+      </c>
+      <c r="B925" s="1" t="n">
+        <v>0.8540697381944444</v>
+      </c>
+      <c r="C925" t="n">
+        <v>97</v>
+      </c>
+      <c r="D925" t="n">
+        <v>6.172</v>
+      </c>
+      <c r="E925" t="n">
+        <v>37.575</v>
+      </c>
+      <c r="F925" t="n">
+        <v>231.9129</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>155</v>
+      </c>
+      <c r="B926" s="1" t="n">
+        <v>0.8547648720023148</v>
+      </c>
+      <c r="C926" t="n">
+        <v>97</v>
+      </c>
+      <c r="D926" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="E926" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="F926" t="n">
+        <v>231.85512</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>157</v>
+      </c>
+      <c r="B927" s="1" t="n">
+        <v>0.8561516013078704</v>
+      </c>
+      <c r="C927" t="n">
+        <v>97</v>
+      </c>
+      <c r="D927" t="n">
+        <v>6.148</v>
+      </c>
+      <c r="E927" t="n">
+        <v>37.605</v>
+      </c>
+      <c r="F927" t="n">
+        <v>231.19554</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>158</v>
+      </c>
+      <c r="B928" s="1" t="n">
+        <v>0.8568466186458333</v>
+      </c>
+      <c r="C928" t="n">
+        <v>97</v>
+      </c>
+      <c r="D928" t="n">
+        <v>6.136</v>
+      </c>
+      <c r="E928" t="n">
+        <v>37.56</v>
+      </c>
+      <c r="F928" t="n">
+        <v>230.46816</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>162</v>
+      </c>
+      <c r="B929" s="1" t="n">
+        <v>0.859624080474537</v>
+      </c>
+      <c r="C929" t="n">
+        <v>97</v>
+      </c>
+      <c r="D929" t="n">
+        <v>6.056</v>
+      </c>
+      <c r="E929" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="F929" t="n">
+        <v>226.91832</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>163</v>
+      </c>
+      <c r="B930" s="1" t="n">
+        <v>0.8603190750925926</v>
+      </c>
+      <c r="C930" t="n">
+        <v>97</v>
+      </c>
+      <c r="D930" t="n">
+        <v>6.028</v>
+      </c>
+      <c r="E930" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="F930" t="n">
+        <v>225.68832</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>164</v>
+      </c>
+      <c r="B931" s="1" t="n">
+        <v>0.861011112962963</v>
+      </c>
+      <c r="C931" t="n">
+        <v>97</v>
+      </c>
+      <c r="D931" t="n">
+        <v>6.088</v>
+      </c>
+      <c r="E931" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="F931" t="n">
+        <v>231.58752</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>169</v>
+      </c>
+      <c r="B932" s="1" t="n">
+        <v>0.8644818276041667</v>
+      </c>
+      <c r="C932" t="n">
+        <v>97</v>
+      </c>
+      <c r="D932" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E932" t="n">
+        <v>37.11</v>
+      </c>
+      <c r="F932" t="n">
+        <v>213.7536</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>170</v>
+      </c>
+      <c r="B933" s="1" t="n">
+        <v>0.8651748770833333</v>
+      </c>
+      <c r="C933" t="n">
+        <v>97</v>
+      </c>
+      <c r="D933" t="n">
+        <v>5.696</v>
+      </c>
+      <c r="E933" t="n">
+        <v>37.035</v>
+      </c>
+      <c r="F933" t="n">
+        <v>210.95136</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>171</v>
+      </c>
+      <c r="B934" s="1" t="n">
+        <v>0.8658693102199074</v>
+      </c>
+      <c r="C934" t="n">
+        <v>97</v>
+      </c>
+      <c r="D934" t="n">
+        <v>5.564</v>
+      </c>
+      <c r="E934" t="n">
+        <v>36.525</v>
+      </c>
+      <c r="F934" t="n">
+        <v>203.2251</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>173</v>
+      </c>
+      <c r="B935" s="1" t="n">
+        <v>0.8672566570601853</v>
+      </c>
+      <c r="C935" t="n">
+        <v>97</v>
+      </c>
+      <c r="D935" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="E935" t="n">
+        <v>29.685</v>
+      </c>
+      <c r="F935" t="n">
+        <v>115.53402</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>175</v>
+      </c>
+      <c r="B936" s="1" t="n">
+        <v>0.8686466568171296</v>
+      </c>
+      <c r="C936" t="n">
+        <v>97</v>
+      </c>
+      <c r="D936" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="E936" t="n">
+        <v>30.78</v>
+      </c>
+      <c r="F936" t="n">
+        <v>74.85695999999999</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>177</v>
+      </c>
+      <c r="B937" s="1" t="n">
+        <v>0.8700338991550927</v>
+      </c>
+      <c r="C937" t="n">
+        <v>97</v>
+      </c>
+      <c r="D937" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="E937" t="n">
+        <v>28.335</v>
+      </c>
+      <c r="F937" t="n">
+        <v>58.25675999999999</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>178</v>
+      </c>
+      <c r="B938" s="1" t="n">
+        <v>0.8707289770023149</v>
+      </c>
+      <c r="C938" t="n">
+        <v>97</v>
+      </c>
+      <c r="D938" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="E938" t="n">
+        <v>28.335</v>
+      </c>
+      <c r="F938" t="n">
+        <v>57.35003999999999</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>179</v>
+      </c>
+      <c r="B939" s="1" t="n">
+        <v>0.8714221347453704</v>
+      </c>
+      <c r="C939" t="n">
+        <v>97</v>
+      </c>
+      <c r="D939" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="E939" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="F939" t="n">
+        <v>61.76976000000001</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>181</v>
+      </c>
+      <c r="B940" s="1" t="n">
+        <v>0.8728105518402777</v>
+      </c>
+      <c r="C940" t="n">
+        <v>97</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="E940" t="n">
+        <v>27.885</v>
+      </c>
+      <c r="F940" t="n">
+        <v>55.43537999999999</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>182</v>
+      </c>
+      <c r="B941" s="1" t="n">
+        <v>0.8735044405902778</v>
+      </c>
+      <c r="C941" t="n">
+        <v>97</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="E941" t="n">
+        <v>28.245</v>
+      </c>
+      <c r="F941" t="n">
+        <v>55.13423999999999</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>184</v>
+      </c>
+      <c r="B942" s="1" t="n">
+        <v>0.8748927201504629</v>
+      </c>
+      <c r="C942" t="n">
+        <v>97</v>
+      </c>
+      <c r="D942" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E942" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="F942" t="n">
+        <v>62.28288</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>186</v>
+      </c>
+      <c r="B943" s="1" t="n">
+        <v>0.8762832028009259</v>
+      </c>
+      <c r="C943" t="n">
+        <v>97</v>
+      </c>
+      <c r="D943" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="E943" t="n">
+        <v>29.715</v>
+      </c>
+      <c r="F943" t="n">
+        <v>61.92606</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>187</v>
+      </c>
+      <c r="B944" s="1" t="n">
+        <v>0.8769755651967591</v>
+      </c>
+      <c r="C944" t="n">
+        <v>97</v>
+      </c>
+      <c r="D944" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E944" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="F944" t="n">
+        <v>62.1504</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>188</v>
+      </c>
+      <c r="B945" s="1" t="n">
+        <v>0.8776697909722223</v>
+      </c>
+      <c r="C945" t="n">
+        <v>97</v>
+      </c>
+      <c r="D945" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="E945" t="n">
+        <v>28.875</v>
+      </c>
+      <c r="F945" t="n">
+        <v>60.4065</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>192</v>
+      </c>
+      <c r="B946" s="1" t="n">
+        <v>0.8804458484837964</v>
+      </c>
+      <c r="C946" t="n">
+        <v>97</v>
+      </c>
+      <c r="D946" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="E946" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="F946" t="n">
+        <v>56.388</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>193</v>
+      </c>
+      <c r="B947" s="1" t="n">
+        <v>0.8811392846990741</v>
+      </c>
+      <c r="C947" t="n">
+        <v>97</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E947" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="F947" t="n">
+        <v>53.14932</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>195</v>
+      </c>
+      <c r="B948" s="1" t="n">
+        <v>0.8825280164467593</v>
+      </c>
+      <c r="C948" t="n">
+        <v>97</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E948" t="n">
+        <v>25.395</v>
+      </c>
+      <c r="F948" t="n">
+        <v>46.7268</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>201</v>
+      </c>
+      <c r="B949" s="1" t="n">
+        <v>0.8866916639814815</v>
+      </c>
+      <c r="C949" t="n">
+        <v>97</v>
+      </c>
+      <c r="D949" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="E949" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="F949" t="n">
+        <v>4.99008</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>202</v>
+      </c>
+      <c r="B950" s="1" t="n">
+        <v>0.8873857971527778</v>
+      </c>
+      <c r="C950" t="n">
+        <v>97</v>
+      </c>
+      <c r="D950" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13.395</v>
+      </c>
+      <c r="F950" t="n">
+        <v>4.8222</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>203</v>
+      </c>
+      <c r="B951" s="1" t="n">
+        <v>0.8880796740393518</v>
+      </c>
+      <c r="C951" t="n">
+        <v>97</v>
+      </c>
+      <c r="D951" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E951" t="n">
+        <v>13.305</v>
+      </c>
+      <c r="F951" t="n">
+        <v>4.7898</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>204</v>
+      </c>
+      <c r="B952" s="1" t="n">
+        <v>0.8887754109374999</v>
+      </c>
+      <c r="C952" t="n">
+        <v>97</v>
+      </c>
+      <c r="D952" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E952" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F952" t="n">
+        <v>4.699199999999999</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>205</v>
+      </c>
+      <c r="B953" s="1" t="n">
+        <v>0.8894704109606483</v>
+      </c>
+      <c r="C953" t="n">
+        <v>97</v>
+      </c>
+      <c r="D953" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="E953" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="F953" t="n">
+        <v>4.67784</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>207</v>
+      </c>
+      <c r="B954" s="1" t="n">
+        <v>0.8908571043171297</v>
+      </c>
+      <c r="C954" t="n">
+        <v>97</v>
+      </c>
+      <c r="D954" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="E954" t="n">
+        <v>13.005</v>
+      </c>
+      <c r="F954" t="n">
+        <v>4.57776</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>208</v>
+      </c>
+      <c r="B955" s="1" t="n">
+        <v>0.8915527237037036</v>
+      </c>
+      <c r="C955" t="n">
+        <v>97</v>
+      </c>
+      <c r="D955" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="E955" t="n">
+        <v>12.855</v>
+      </c>
+      <c r="F955" t="n">
+        <v>4.47354</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>215</v>
+      </c>
+      <c r="B956" s="1" t="n">
+        <v>0.8964100650115741</v>
+      </c>
+      <c r="C956" t="n">
+        <v>97</v>
+      </c>
+      <c r="D956" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="E956" t="n">
+        <v>11.775</v>
+      </c>
+      <c r="F956" t="n">
+        <v>3.6738</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>217</v>
+      </c>
+      <c r="B957" s="1" t="n">
+        <v>0.8977979053935184</v>
+      </c>
+      <c r="C957" t="n">
+        <v>97</v>
+      </c>
+      <c r="D957" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E957" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F957" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>218</v>
+      </c>
+      <c r="B958" s="1" t="n">
+        <v>0.8984927870023148</v>
+      </c>
+      <c r="C958" t="n">
+        <v>97</v>
+      </c>
+      <c r="D958" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="E958" t="n">
+        <v>11.055</v>
+      </c>
+      <c r="F958" t="n">
+        <v>3.22806</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>219</v>
+      </c>
+      <c r="B959" s="1" t="n">
+        <v>0.8991867115856481</v>
+      </c>
+      <c r="C959" t="n">
+        <v>97</v>
+      </c>
+      <c r="D959" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E959" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="F959" t="n">
+        <v>3.132000000000001</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>220</v>
+      </c>
+      <c r="B960" s="1" t="n">
+        <v>0.8998807217592592</v>
+      </c>
+      <c r="C960" t="n">
+        <v>97</v>
+      </c>
+      <c r="D960" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="E960" t="n">
+        <v>10.755</v>
+      </c>
+      <c r="F960" t="n">
+        <v>3.05442</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>221</v>
+      </c>
+      <c r="B961" s="1" t="n">
+        <v>0.9005745398958334</v>
+      </c>
+      <c r="C961" t="n">
+        <v>97</v>
+      </c>
+      <c r="D961" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E961" t="n">
+        <v>10.635</v>
+      </c>
+      <c r="F961" t="n">
+        <v>2.9778</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>222</v>
+      </c>
+      <c r="B962" s="1" t="n">
+        <v>0.9012683834027777</v>
+      </c>
+      <c r="C962" t="n">
+        <v>97</v>
+      </c>
+      <c r="D962" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E962" t="n">
+        <v>10.485</v>
+      </c>
+      <c r="F962" t="n">
+        <v>2.89386</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>223</v>
+      </c>
+      <c r="B963" s="1" t="n">
+        <v>0.9019662281828704</v>
+      </c>
+      <c r="C963" t="n">
+        <v>97</v>
+      </c>
+      <c r="D963" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="E963" t="n">
+        <v>10.305</v>
+      </c>
+      <c r="F963" t="n">
+        <v>2.80296</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>225</v>
+      </c>
+      <c r="B964" s="1" t="n">
+        <v>0.9033540324305557</v>
+      </c>
+      <c r="C964" t="n">
+        <v>97</v>
+      </c>
+      <c r="D964" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="E964" t="n">
+        <v>9.764999999999999</v>
+      </c>
+      <c r="F964" t="n">
+        <v>2.49984</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>226</v>
+      </c>
+      <c r="B965" s="1" t="n">
+        <v>0.9040444326620372</v>
+      </c>
+      <c r="C965" t="n">
+        <v>97</v>
+      </c>
+      <c r="D965" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="E965" t="n">
+        <v>9.435</v>
+      </c>
+      <c r="F965" t="n">
+        <v>2.33988</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>230</v>
+      </c>
+      <c r="B966" s="1" t="n">
+        <v>0.9068212765162037</v>
+      </c>
+      <c r="C966" t="n">
+        <v>97</v>
+      </c>
+      <c r="D966" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="E966" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="F966" t="n">
+        <v>1.6065</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>232</v>
+      </c>
+      <c r="B967" s="1" t="n">
+        <v>0.9082100735416666</v>
+      </c>
+      <c r="C967" t="n">
+        <v>97</v>
+      </c>
+      <c r="D967" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E967" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F967" t="n">
+        <v>1.35924</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>233</v>
+      </c>
+      <c r="B968" s="1" t="n">
+        <v>0.9089036915277778</v>
+      </c>
+      <c r="C968" t="n">
+        <v>97</v>
+      </c>
+      <c r="D968" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E968" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F968" t="n">
+        <v>1.269</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>236</v>
+      </c>
+      <c r="B969" s="1" t="n">
+        <v>0.9109863198958333</v>
+      </c>
+      <c r="C969" t="n">
+        <v>97</v>
+      </c>
+      <c r="D969" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E969" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.9523799999999999</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>237</v>
+      </c>
+      <c r="B970" s="1" t="n">
+        <v>0.911682008587963</v>
+      </c>
+      <c r="C970" t="n">
+        <v>97</v>
+      </c>
+      <c r="D970" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="E970" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.89832</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>238</v>
+      </c>
+      <c r="B971" s="1" t="n">
+        <v>0.9123744378356482</v>
+      </c>
+      <c r="C971" t="n">
+        <v>97</v>
+      </c>
+      <c r="D971" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="E971" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.8480399999999999</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>241</v>
+      </c>
+      <c r="B972" s="1" t="n">
+        <v>0.9144575948726852</v>
+      </c>
+      <c r="C972" t="n">
+        <v>97</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E972" t="n">
+        <v>5.385</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.7539</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>243</v>
+      </c>
+      <c r="B973" s="1" t="n">
+        <v>0.9158436453819444</v>
+      </c>
+      <c r="C973" t="n">
+        <v>97</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E973" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.70992</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>245</v>
+      </c>
+      <c r="B974" s="1" t="n">
+        <v>0.9172329641203705</v>
+      </c>
+      <c r="C974" t="n">
+        <v>97</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E974" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.64128</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>246</v>
+      </c>
+      <c r="B975" s="1" t="n">
+        <v>0.9179271689930556</v>
+      </c>
+      <c r="C975" t="n">
+        <v>97</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E975" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>247</v>
+      </c>
+      <c r="B976" s="1" t="n">
+        <v>0.918621311712963</v>
+      </c>
+      <c r="C976" t="n">
+        <v>97</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E976" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.5877600000000001</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>248</v>
+      </c>
+      <c r="B977" s="1" t="n">
+        <v>0.9193153930787036</v>
+      </c>
+      <c r="C977" t="n">
+        <v>97</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E977" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.5508</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>249</v>
+      </c>
+      <c r="B978" s="1" t="n">
+        <v>0.9200127888078704</v>
+      </c>
+      <c r="C978" t="n">
+        <v>97</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E978" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.5133</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>251</v>
+      </c>
+      <c r="B979" s="1" t="n">
+        <v>0.921397597511574</v>
+      </c>
+      <c r="C979" t="n">
+        <v>97</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E979" t="n">
+        <v>4.155</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.44874</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>252</v>
+      </c>
+      <c r="B980" s="1" t="n">
+        <v>0.9220916757870371</v>
+      </c>
+      <c r="C980" t="n">
+        <v>97</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E980" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.44226</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>253</v>
+      </c>
+      <c r="B981" s="1" t="n">
+        <v>0.9227849390046297</v>
+      </c>
+      <c r="C981" t="n">
+        <v>97</v>
+      </c>
+      <c r="D981" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="E981" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.4374</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>1</v>
+      </c>
+      <c r="B982" s="1" t="n">
+        <v>0.9248674302314815</v>
+      </c>
+      <c r="C982" t="n">
+        <v>97</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="E982" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F982" t="n">
+        <v>5.907120000000001</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>3</v>
+      </c>
+      <c r="B983" s="1" t="n">
+        <v>0.9262556588425926</v>
+      </c>
+      <c r="C983" t="n">
+        <v>97</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="E983" t="n">
+        <v>4.455</v>
+      </c>
+      <c r="F983" t="n">
+        <v>2.42352</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>4</v>
+      </c>
+      <c r="B984" s="1" t="n">
+        <v>0.9269529765162037</v>
+      </c>
+      <c r="C984" t="n">
+        <v>97</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E984" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F984" t="n">
+        <v>1.2348</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>6</v>
+      </c>
+      <c r="B985" s="1" t="n">
+        <v>0.9283380099537037</v>
+      </c>
+      <c r="C985" t="n">
+        <v>97</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E985" t="n">
+        <v>4.274999999999999</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.5129999999999999</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>7</v>
+      </c>
+      <c r="B986" s="1" t="n">
+        <v>0.9290330924189815</v>
+      </c>
+      <c r="C986" t="n">
+        <v>97</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E986" t="n">
+        <v>4.215</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.47208</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>10</v>
+      </c>
+      <c r="B987" s="1" t="n">
+        <v>0.9311144252199074</v>
+      </c>
+      <c r="C987" t="n">
+        <v>97</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E987" t="n">
+        <v>4.065</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.42276</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>11</v>
+      </c>
+      <c r="B988" s="1" t="n">
+        <v>0.9318086559259259</v>
+      </c>
+      <c r="C988" t="n">
+        <v>97</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E988" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.4212</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>12</v>
+      </c>
+      <c r="B989" s="1" t="n">
+        <v>0.9325022095370371</v>
+      </c>
+      <c r="C989" t="n">
+        <v>97</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E989" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.4212</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>13</v>
+      </c>
+      <c r="B990" s="1" t="n">
+        <v>0.9331969592361111</v>
+      </c>
+      <c r="C990" t="n">
+        <v>97</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E990" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.41808</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>15</v>
+      </c>
+      <c r="B991" s="1" t="n">
+        <v>0.9345884223958333</v>
+      </c>
+      <c r="C991" t="n">
+        <v>97</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E991" t="n">
+        <v>4.035</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.4196400000000001</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>17</v>
+      </c>
+      <c r="B992" s="1" t="n">
+        <v>0.9359729585648148</v>
+      </c>
+      <c r="C992" t="n">
+        <v>97</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E992" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.41184</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>21</v>
+      </c>
+      <c r="B993" s="1" t="n">
+        <v>0.9387512574189815</v>
+      </c>
+      <c r="C993" t="n">
+        <v>97</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E993" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.40404</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>23</v>
+      </c>
+      <c r="B994" s="1" t="n">
+        <v>0.9401378657175926</v>
+      </c>
+      <c r="C994" t="n">
+        <v>97</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E994" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.4212</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>25</v>
+      </c>
+      <c r="B995" s="1" t="n">
+        <v>0.9415291446412037</v>
+      </c>
+      <c r="C995" t="n">
+        <v>97</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E995" t="n">
+        <v>3.945</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.41028</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>28</v>
+      </c>
+      <c r="B996" s="1" t="n">
+        <v>0.9436079815625</v>
+      </c>
+      <c r="C996" t="n">
+        <v>97</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="E996" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.40872</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>29</v>
+      </c>
+      <c r="B997" s="1" t="n">
+        <v>0.9443015032407407</v>
+      </c>
+      <c r="C997" t="n">
+        <v>97</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E997" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>30</v>
+      </c>
+      <c r="B998" s="1" t="n">
+        <v>0.9449965175231482</v>
+      </c>
+      <c r="C998" t="n">
+        <v>97</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E998" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0.3765</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>31</v>
+      </c>
+      <c r="B999" s="1" t="n">
+        <v>0.9456899064930556</v>
+      </c>
+      <c r="C999" t="n">
+        <v>97</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E999" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.3528</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>33</v>
+      </c>
+      <c r="B1000" s="1" t="n">
+        <v>0.9470781422222222</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.33984</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>35</v>
+      </c>
+      <c r="B1001" s="1" t="n">
+        <v>0.9484658717013889</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>37</v>
+      </c>
+      <c r="B1002" s="1" t="n">
+        <v>0.9498552967708332</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.26586</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>38</v>
+      </c>
+      <c r="B1003" s="1" t="n">
+        <v>0.950553509513889</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0.2424</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>39</v>
+      </c>
+      <c r="B1004" s="1" t="n">
+        <v>0.9512448331712963</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.22002</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>42</v>
+      </c>
+      <c r="B1005" s="1" t="n">
+        <v>0.9533255025231482</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.16524</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>43</v>
+      </c>
+      <c r="B1006" s="1" t="n">
+        <v>0.9540200036111111</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.14592</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>44</v>
+      </c>
+      <c r="B1007" s="1" t="n">
+        <v>0.9547128956250001</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.1269</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>46</v>
+      </c>
+      <c r="B1008" s="1" t="n">
+        <v>0.9561017427662037</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.0975</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>47</v>
+      </c>
+      <c r="B1009" s="1" t="n">
+        <v>0.9567963613078704</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.09515999999999999</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>49</v>
+      </c>
+      <c r="B1010" s="1" t="n">
+        <v>0.9581846876504631</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.08064</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>51</v>
+      </c>
+      <c r="B1011" s="1" t="n">
+        <v>0.9595722081481481</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.07704</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>53</v>
+      </c>
+      <c r="B1012" s="1" t="n">
+        <v>0.9609602765740741</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.06798</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>54</v>
+      </c>
+      <c r="B1013" s="1" t="n">
+        <v>0.9616584137731481</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>55</v>
+      </c>
+      <c r="B1014" s="1" t="n">
+        <v>0.9623498628703704</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.06401999999999999</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>56</v>
+      </c>
+      <c r="B1015" s="1" t="n">
+        <v>0.963043878599537</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.0564</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1016" s="1" t="n">
+        <v>0.9637364139583333</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.05399999999999999</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>58</v>
+      </c>
+      <c r="B1017" s="1" t="n">
+        <v>0.9644319379629629</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.0522</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>60</v>
+      </c>
+      <c r="B1018" s="1" t="n">
+        <v>0.9658200299652777</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.04428000000000001</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>61</v>
+      </c>
+      <c r="B1019" s="1" t="n">
+        <v>0.966513591886574</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.04212</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>62</v>
+      </c>
+      <c r="B1020" s="1" t="n">
+        <v>0.9672072347106482</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.04158000000000001</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>63</v>
+      </c>
+      <c r="B1021" s="1" t="n">
+        <v>0.9679019474652777</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.03996</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>66</v>
+      </c>
+      <c r="B1022" s="1" t="n">
+        <v>0.9699839844097222</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.03312</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>67</v>
+      </c>
+      <c r="B1023" s="1" t="n">
+        <v>0.9706771726388888</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.03168</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>69</v>
+      </c>
+      <c r="B1024" s="1" t="n">
+        <v>0.972066150462963</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>70</v>
+      </c>
+      <c r="B1025" s="1" t="n">
+        <v>0.9727615879861111</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>71</v>
+      </c>
+      <c r="B1026" s="1" t="n">
+        <v>0.9734551853703703</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.03072</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>72</v>
+      </c>
+      <c r="B1027" s="1" t="n">
+        <v>0.9741497429976852</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0.02646</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>74</v>
+      </c>
+      <c r="B1028" s="1" t="n">
+        <v>0.9755389871180555</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>0.9149999999999999</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.02562</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>75</v>
+      </c>
+      <c r="B1029" s="1" t="n">
+        <v>0.9762333173958334</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.0252</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>78</v>
+      </c>
+      <c r="B1030" s="1" t="n">
+        <v>0.9783127800925926</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.02436</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>80</v>
+      </c>
+      <c r="B1031" s="1" t="n">
+        <v>0.9797007067361111</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0.02394</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>81</v>
+      </c>
+      <c r="B1032" s="1" t="n">
+        <v>0.9803944807060184</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.02352</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>82</v>
+      </c>
+      <c r="B1033" s="1" t="n">
+        <v>0.9810894649305556</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.02352</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>83</v>
+      </c>
+      <c r="B1034" s="1" t="n">
+        <v>0.9817846765509259</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.02268</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>85</v>
+      </c>
+      <c r="B1035" s="1" t="n">
+        <v>0.9831728174768518</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0.02184</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>87</v>
+      </c>
+      <c r="B1036" s="1" t="n">
+        <v>0.9845594399884259</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>88</v>
+      </c>
+      <c r="B1037" s="1" t="n">
+        <v>0.9852540507523148</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>89</v>
+      </c>
+      <c r="B1038" s="1" t="n">
+        <v>0.9859478084606481</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>91</v>
+      </c>
+      <c r="B1039" s="1" t="n">
+        <v>0.9873368662615741</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0.01656</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>92</v>
+      </c>
+      <c r="B1040" s="1" t="n">
+        <v>0.98803089</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0.0162</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>93</v>
+      </c>
+      <c r="B1041" s="1" t="n">
+        <v>0.9887256867013888</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0.0162</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>94</v>
+      </c>
+      <c r="B1042" s="1" t="n">
+        <v>0.9894192261458334</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>0.6749999999999999</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0.0162</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>95</v>
+      </c>
+      <c r="B1043" s="1" t="n">
+        <v>0.9901140577199073</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0.01584</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>97</v>
+      </c>
+      <c r="B1044" s="1" t="n">
+        <v>0.9915033203240741</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0.01476</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>98</v>
+      </c>
+      <c r="B1045" s="1" t="n">
+        <v>0.9921960181944444</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0.0117</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1046" s="1" t="n">
+        <v>0.9935860089930556</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>102</v>
+      </c>
+      <c r="B1047" s="1" t="n">
+        <v>0.9949713275925927</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>103</v>
+      </c>
+      <c r="B1048" s="1" t="n">
+        <v>0.9956659738888889</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0.00672</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>104</v>
+      </c>
+      <c r="B1049" s="1" t="n">
+        <v>0.9963600114699074</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0.00672</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>105</v>
+      </c>
+      <c r="B1050" s="1" t="n">
+        <v>0.9970541780787037</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0.00648</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>109</v>
+      </c>
+      <c r="B1051" s="1" t="n">
+        <v>0.9998303275925926</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0.006240000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
